--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Mbappe', 'Ramos', 'Soler']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Dallinga', 'ChaÃ¯bi', 'Aboukhlal', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Borges']</t>
-  </si>
-  <si>
-    <t>['David', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Brahimi', 'Diop', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Khazri', 'Sakho']</t>
+    <t>['Van_den_Boomen', 'Spierings', 'Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Terrier', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Talbi', 'Laporte', 'Pelon', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Bryan', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Coco', 'Pallois']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Medina']</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>['Dugimont']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Lemarechal', 'Lemarechal', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Lega', 'Tolisso', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Sima']</t>
-  </si>
-  <si>
-    <t>['Ganiou', 'Boura', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Gigot', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Odobert']</t>
-  </si>
-  <si>
-    <t>['Jeanvier']</t>
+    <t>['Lebas']</t>
+  </si>
+  <si>
+    <t>['Burlet']</t>
+  </si>
+  <si>
+    <t>['Ugbo']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Flips']</t>
+  </si>
+  <si>
+    <t>['Doumbia']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Sanson']</t>
   </si>
 </sst>
 </file>
@@ -555,22 +558,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -584,22 +587,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,25 +610,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -636,28 +639,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,28 +668,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -700,22 +703,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -729,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -738,10 +741,10 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -752,28 +755,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,25 +784,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -810,28 +813,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Van_den_Boomen', 'Spierings', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Gastien']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Ramos', 'Messi']</t>
-  </si>
-  <si>
-    <t>['Talbi', 'Laporte', 'Pelon', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Bryan', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Kabore', 'Balerdi']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Medina']</t>
+    <t>['Lega', 'Bercola', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Lebas']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Embolo', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Le_Goff', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Gradit']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Attal']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Rajot', 'Bayo']</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>['Dugimont']</t>
+    <t>['Messi']</t>
+  </si>
+  <si>
+    <t>['Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Ganago']</t>
+  </si>
+  <si>
+    <t>['Ito']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'H.Diallo']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Lebas']</t>
-  </si>
-  <si>
-    <t>['Burlet']</t>
-  </si>
-  <si>
-    <t>['Ugbo']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Flips']</t>
-  </si>
-  <si>
-    <t>['Doumbia']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'Sanson']</t>
+    <t>['Chardonnet']</t>
+  </si>
+  <si>
+    <t>['Maouassa', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Andre', 'Ribeiro']</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>2</v>

--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Lega', 'Bercola', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Theate', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Lebas']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Embolo', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Le_Goff', 'Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Gradit']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Attal']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Rajot', 'Bayo']</t>
+    <t>['Sanson', 'Mothiba', 'Delaine', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'ChaÃ¯bi', 'Dallinga']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Cisse', 'Rajot']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Cajuste']</t>
+  </si>
+  <si>
+    <t>['Mounie']</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Rennes</t>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
     <t>Montpellier</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>['Messi']</t>
-  </si>
-  <si>
-    <t>['Da_Costa']</t>
+    <t>['Bain', 'Lipinski', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Ruiz']</t>
+  </si>
+  <si>
+    <t>['Michelin', "N'Diaye", 'Vidal', 'Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Coco']</t>
   </si>
   <si>
     <t>['Doumbia', 'Masson']</t>
   </si>
   <si>
-    <t>['Ganago']</t>
-  </si>
-  <si>
-    <t>['Ito']</t>
-  </si>
-  <si>
-    <t>['Lienard', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Maouassa', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Andre', 'Ribeiro']</t>
+    <t>['Khazri', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Cabella', 'Gudmundsson', 'Cabella', 'Cabella']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +546,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +558,10 @@
         <v>18</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
         <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,15 +570,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +587,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +599,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +628,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +657,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,19 +674,19 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -715,7 +712,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -726,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,24 +732,24 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -767,21 +764,21 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -802,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -810,10 +807,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,34 +40,76 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Sanson', 'Mothiba', 'Delaine', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'ChaÃ¯bi', 'Dallinga']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Cisse', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Cajuste']</t>
-  </si>
-  <si>
-    <t>['Mounie']</t>
+    <t>['Serrano', 'Serrano']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Ganago', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Sakho']</t>
+  </si>
+  <si>
+    <t>['Doumbia', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Cherki']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Ito']</t>
+  </si>
+  <si>
+    <t>['Boyer']</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Strasbourg</t>
@@ -76,85 +118,46 @@
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Bain', 'Lipinski', 'Da_Costa']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Ruiz']</t>
-  </si>
-  <si>
-    <t>['Michelin', "N'Diaye", 'Vidal', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Germain']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Gudmundsson', 'Cabella', 'Cabella']</t>
+    <t>['Matsima']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'David']</t>
+  </si>
+  <si>
+    <t>['Santamaria', 'Santamaria']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Djiku', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Mounie', 'Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Balde', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Autret']</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,7 +573,7 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -599,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -633,10 +636,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -657,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,24 +680,24 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,27 +706,27 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,16 +738,16 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -752,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,16 +767,16 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -799,18 +802,18 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,16 +825,16 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Sanson', 'Mothiba', 'Delaine', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Onaiwu', 'ChaÃ¯bi', 'Dallinga']</t>
-  </si>
-  <si>
-    <t>['Wieteska', 'Cisse', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Cajuste']</t>
-  </si>
-  <si>
-    <t>['Mounie']</t>
+    <t>['Dugimont', 'Da_Costa', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Clauss', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Beka']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Versini']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Ribeiro']</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Brest</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>Nantes</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Bain', 'Lipinski', 'Da_Costa']</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Ruiz']</t>
-  </si>
-  <si>
-    <t>['Michelin', "N'Diaye", 'Vidal', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Masson']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Germain']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'Gudmundsson', 'Cabella', 'Cabella']</t>
+    <t>['Aguilar', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Sanson']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Traore', 'Theate', 'Gouiri', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Castelletto', 'Ganago', 'Simon', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Kipembe', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Ripart', 'Ripart', 'Ripart']</t>
+  </si>
+  <si>
+    <t>['Bamba', 'Bamba', 'Camara']</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,12 +573,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -604,10 +607,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -633,10 +636,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -657,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,27 +677,27 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,27 +706,27 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,27 +735,27 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -770,18 +773,18 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,24 +796,24 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,16 +825,16 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Serrano', 'Serrano']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Ganago', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce', 'Sakho']</t>
-  </si>
-  <si>
-    <t>['Doumbia', 'Corduan']</t>
-  </si>
-  <si>
-    <t>['Cherki']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Ito']</t>
-  </si>
-  <si>
-    <t>['Boyer']</t>
+    <t>['Rongier', 'Balerdi', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Talbi', 'Ponceau']</t>
+  </si>
+  <si>
+    <t>['Traore', 'Traore', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Dembele', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Nordin', 'Wahi', 'Savanier']</t>
+  </si>
+  <si>
+    <t>['Chardonnet', 'Mounie']</t>
+  </si>
+  <si>
+    <t>['Ribeiro', 'Fonte']</t>
+  </si>
+  <si>
+    <t>['Onaiwu']</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>OL</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>['Matsima']</t>
-  </si>
-  <si>
-    <t>['Burlet', 'David']</t>
-  </si>
-  <si>
-    <t>['Santamaria', 'Santamaria']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Mounie', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Balde', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Autret']</t>
+    <t>['Balde', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Sibide']</t>
+  </si>
+  <si>
+    <t>['Sima']</t>
+  </si>
+  <si>
+    <t>['Ganiou']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Ito', 'Lopy']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Bellegarde', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Mollet', 'Coco']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,12 +689,12 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -747,15 +747,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,15 +776,15 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -805,12 +805,12 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>

--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Castelletto', 'Girotto', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Salmier', 'Porozo']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Le_Goff']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Assignon', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Ribeiro', 'Gomes']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Lopez']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Pele', 'Sibide', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Porozo']</t>
+  </si>
+  <si>
+    <t>['Ruiz', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Guessand']</t>
+  </si>
+  <si>
+    <t>['Dugimont']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Laborde']</t>
+  </si>
+  <si>
+    <t>['Flips']</t>
+  </si>
+  <si>
+    <t>['Maurer']</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Troyes</t>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Angers</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Djiku']</t>
-  </si>
-  <si>
-    <t>['Corduan']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Bayo', 'Rajot']</t>
-  </si>
-  <si>
-    <t>['Attal', 'Beka']</t>
-  </si>
-  <si>
-    <t>['Varane', 'Boura']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Aouar']</t>
+    <t>['Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Ratao']</t>
+  </si>
+  <si>
+    <t>['Tchato']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Fonte', 'David']</t>
+  </si>
+  <si>
+    <t>['Fortes']</t>
+  </si>
+  <si>
+    <t>['Gouiri']</t>
+  </si>
+  <si>
+    <t>['Mothiba', 'Delaine', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Capelle', 'Guillaume', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Silva', 'Matsima', 'Pelon']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -555,19 +558,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -575,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -584,19 +587,19 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -604,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -613,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -622,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -633,36 +636,36 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -671,19 +674,19 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -691,7 +694,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -700,19 +703,19 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -729,19 +732,19 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -749,36 +752,36 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -787,19 +790,19 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -813,22 +816,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Pele', 'Sibide', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Lega']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Porozo']</t>
-  </si>
-  <si>
-    <t>['Ruiz', 'Mendes']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Payet']</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
-  </si>
-  <si>
-    <t>['Dugimont']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Laborde']</t>
-  </si>
-  <si>
-    <t>['Flips']</t>
-  </si>
-  <si>
-    <t>['Maurer']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Duverne', 'Brassier', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Delort', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Dugimont', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Sanches']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Hamouma']</t>
+  </si>
+  <si>
+    <t>['Caqueret']</t>
+  </si>
+  <si>
+    <t>['Talbi']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>PSG</t>
+    <t>Strasbourg</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>['Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Ratao']</t>
-  </si>
-  <si>
-    <t>['Tchato']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Fonte', 'David']</t>
-  </si>
-  <si>
-    <t>['Fortes']</t>
-  </si>
-  <si>
-    <t>['Gouiri']</t>
-  </si>
-  <si>
-    <t>['Mothiba', 'Delaine', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Capelle', 'Guillaume', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Matsima', 'Pelon']</t>
+    <t>['Balogin', 'Zeneli']</t>
+  </si>
+  <si>
+    <t>['Le_Cardinal', 'Gradit', 'Ganiou', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Lienard', 'Mothiba']</t>
+  </si>
+  <si>
+    <t>['Balerdi', 'Harit', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Rodon']</t>
+  </si>
+  <si>
+    <t>['Spierings']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Andre', 'Gomes', 'Cabella', 'Cabella']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +549,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
+      <c r="G5">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,121 +46,124 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Mounie', 'Duverne', 'Brassier', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Pallois', 'Delort', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Dugimont', 'Da_Costa']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Sanches']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Caqueret']</t>
-  </si>
-  <si>
-    <t>['Talbi']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce']</t>
+    <t>['Germain', 'Maouassa', 'Mavididi', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Jakobs', 'Embolo', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Le_Cardinal', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Diop', 'Dante']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Alphonse', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Neymar']</t>
+  </si>
+  <si>
+    <t>['Dugimont']</t>
+  </si>
+  <si>
+    <t>['Salmier']</t>
+  </si>
+  <si>
+    <t>['Cabella']</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Tolisso', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Girotto', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Bellegarde']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Gradit', 'Ganiou', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Lienard', 'Mothiba']</t>
-  </si>
-  <si>
-    <t>['Balerdi', 'Harit', 'Harit']</t>
-  </si>
-  <si>
-    <t>['Majer', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Spierings']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Burlet', 'Andre', 'Gomes', 'Cabella', 'Cabella']</t>
+    <t>['Laporte', 'Laporte', 'Innocent', 'Pelon', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Lopez', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Desler', 'Ratao', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Tavares']</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Balogin']</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -576,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -588,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -608,10 +611,10 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -620,18 +623,18 @@
         <v>41</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -643,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -658,18 +661,18 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -678,10 +681,10 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -690,21 +693,21 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -713,10 +716,10 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -725,18 +728,18 @@
         <v>44</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -748,10 +751,10 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -763,18 +766,18 @@
         <v>3</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -786,30 +789,30 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -821,16 +824,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -838,13 +841,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -856,24 +859,24 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -888,22 +891,22 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/jour5.xlsx
+++ b/jour5.xlsx
@@ -46,124 +46,124 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Germain', 'Maouassa', 'Mavididi', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Jakobs', 'Embolo', 'Henrique']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Le_Cardinal', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Diop', 'Dante']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Alphonse', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Neymar']</t>
-  </si>
-  <si>
-    <t>['Dugimont']</t>
-  </si>
-  <si>
-    <t>['Salmier']</t>
-  </si>
-  <si>
-    <t>['Cabella']</t>
+    <t>['Dugimont', 'Dembele', 'Da_Costa']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Gameiro', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Sanches']</t>
+  </si>
+  <si>
+    <t>['Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Ratao']</t>
+  </si>
+  <si>
+    <t>['Attal']</t>
+  </si>
+  <si>
+    <t>['Maouassa']</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nice</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Nice</t>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Tolisso', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Cisse']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Girotto', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Bellegarde']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Laporte', 'Laporte', 'Innocent', 'Pelon', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Rongier']</t>
-  </si>
-  <si>
-    <t>['Desler', 'Ratao', 'Spierings']</t>
-  </si>
-  <si>
-    <t>['Tavares']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Balogin']</t>
+    <t>['Girotto']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Balogin']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Valencia']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Bamba', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Rajot']</t>
+  </si>
+  <si>
+    <t>['Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Palaversa']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Theate', 'Gouiri']</t>
   </si>
 </sst>
 </file>
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -576,10 +576,10 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -623,21 +623,21 @@
         <v>41</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -646,10 +646,10 @@
         <v>22</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -658,10 +658,10 @@
         <v>42</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -681,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -696,18 +696,18 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -728,18 +728,18 @@
         <v>44</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -766,18 +766,18 @@
         <v>3</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
@@ -798,21 +798,21 @@
         <v>46</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>37</v>
@@ -833,7 +833,7 @@
         <v>47</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -906,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
